--- a/COVIDPPP/simple_regression2.xlsx
+++ b/COVIDPPP/simple_regression2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E74A90-6E81-4787-9715-410E3600065F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F76E7B7-5B15-4C0C-804A-A5CA651D2C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5C0248D8-EA7F-4B58-AE6F-972E3FB6C12F}"/>
   </bookViews>
   <sheets>
     <sheet name="zip" sheetId="1" r:id="rId1"/>
-    <sheet name="county" sheetId="2" r:id="rId2"/>
+    <sheet name="zip2" sheetId="3" r:id="rId2"/>
+    <sheet name="county" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="121">
   <si>
     <t>Model 1</t>
   </si>
@@ -341,6 +342,63 @@
   </si>
   <si>
     <t>Regressor</t>
+  </si>
+  <si>
+    <t>0.086***</t>
+  </si>
+  <si>
+    <t>0.065***</t>
+  </si>
+  <si>
+    <t>0.048***</t>
+  </si>
+  <si>
+    <t>0.022***</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>(0.006)</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>0.000*</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>-0.019</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>R2 (full model)</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>Adj. R2 (full model)</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.310</t>
   </si>
 </sst>
 </file>
@@ -1193,11 +1251,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A13939-F957-46CE-ADB4-928E2E1F7DF1}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A33397-649D-49F9-B366-14D09A9F4F06}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,6 +1285,447 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A13939-F957-46CE-ADB4-928E2E1F7DF1}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">

--- a/COVIDPPP/simple_regression2.xlsx
+++ b/COVIDPPP/simple_regression2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8A40B9-8923-4B93-A025-EA4FF5287512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB115BD7-A821-46AC-AA0F-8654ACF57937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-1840" windowWidth="19420" windowHeight="10420" xr2:uid="{5C0248D8-EA7F-4B58-AE6F-972E3FB6C12F}"/>
+    <workbookView xWindow="-19310" yWindow="-1840" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5C0248D8-EA7F-4B58-AE6F-972E3FB6C12F}"/>
   </bookViews>
   <sheets>
-    <sheet name="zip" sheetId="1" r:id="rId1"/>
-    <sheet name="zip2" sheetId="3" r:id="rId2"/>
+    <sheet name="zip2" sheetId="1" r:id="rId1"/>
+    <sheet name="zip" sheetId="3" r:id="rId2"/>
     <sheet name="county" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="120">
   <si>
     <t>Model 1</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Num. obs.</t>
   </si>
   <si>
-    <t>RMSE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -95,12 +92,6 @@
     <t>(0.004)</t>
   </si>
   <si>
-    <t>0.040***</t>
-  </si>
-  <si>
-    <t>(0.035)</t>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>(0.000)</t>
   </si>
   <si>
-    <t>0.025</t>
-  </si>
-  <si>
     <t>Adj. R2</t>
   </si>
   <si>
@@ -140,24 +128,6 @@
     <t>0.002</t>
   </si>
   <si>
-    <t>(0.019)</t>
-  </si>
-  <si>
-    <t>19.782</t>
-  </si>
-  <si>
-    <t>16.815</t>
-  </si>
-  <si>
-    <t>14.228</t>
-  </si>
-  <si>
-    <t>11.874</t>
-  </si>
-  <si>
-    <t>11.819</t>
-  </si>
-  <si>
     <t>Regressor</t>
   </si>
   <si>
@@ -167,42 +137,15 @@
     <t>Model 7</t>
   </si>
   <si>
-    <t>39.608***</t>
-  </si>
-  <si>
-    <t>(2.181)</t>
-  </si>
-  <si>
-    <t>0.137***</t>
-  </si>
-  <si>
-    <t>0.057***</t>
-  </si>
-  <si>
-    <t>0.062***</t>
-  </si>
-  <si>
-    <t>0.024***</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
     <t>(0.007)</t>
   </si>
   <si>
     <t>0.000***</t>
   </si>
   <si>
-    <t>0.007</t>
-  </si>
-  <si>
     <t>(0.009)</t>
   </si>
   <si>
-    <t>-0.066</t>
-  </si>
-  <si>
     <t>3621767</t>
   </si>
   <si>
@@ -218,30 +161,18 @@
     <t>0.624</t>
   </si>
   <si>
-    <t>0.791</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
     <t>0.490</t>
   </si>
   <si>
     <t>0.623</t>
   </si>
   <si>
-    <t>0.790</t>
-  </si>
-  <si>
     <t>Num. groups: lender</t>
   </si>
   <si>
     <t>4727</t>
   </si>
   <si>
-    <t>Num. groups: FIPS</t>
-  </si>
-  <si>
     <t>2677</t>
   </si>
   <si>
@@ -257,36 +188,15 @@
     <t>COVID-19 variables</t>
   </si>
   <si>
-    <t>60.147***</t>
-  </si>
-  <si>
-    <t>(11.670)</t>
-  </si>
-  <si>
-    <t>0.100**</t>
-  </si>
-  <si>
     <t>0.054***</t>
   </si>
   <si>
     <t>0.060</t>
   </si>
   <si>
-    <t>0.010</t>
-  </si>
-  <si>
-    <t>0.630</t>
-  </si>
-  <si>
     <t>(0.032)</t>
   </si>
   <si>
-    <t>(0.022)</t>
-  </si>
-  <si>
-    <t>(0.327)</t>
-  </si>
-  <si>
     <t>-0.001</t>
   </si>
   <si>
@@ -296,12 +206,6 @@
     <t>-0.004*</t>
   </si>
   <si>
-    <t>-0.617</t>
-  </si>
-  <si>
-    <t>(0.493)</t>
-  </si>
-  <si>
     <t>4385361</t>
   </si>
   <si>
@@ -332,61 +236,166 @@
     <t>0.657</t>
   </si>
   <si>
-    <t>39.175***</t>
-  </si>
-  <si>
-    <t>(2.158)</t>
-  </si>
-  <si>
-    <t>0.135***</t>
-  </si>
-  <si>
     <t>0.056***</t>
   </si>
   <si>
     <t>0.058***</t>
   </si>
   <si>
-    <t>0.042***</t>
-  </si>
-  <si>
     <t>0.008</t>
   </si>
   <si>
-    <t>0.076*</t>
-  </si>
-  <si>
     <t>(0.006)</t>
   </si>
   <si>
-    <t>(0.031)</t>
-  </si>
-  <si>
-    <t>0.000*</t>
-  </si>
-  <si>
     <t>-0.000*</t>
   </si>
   <si>
-    <t>-0.009</t>
-  </si>
-  <si>
-    <t>-0.090</t>
-  </si>
-  <si>
-    <t>(0.052)</t>
-  </si>
-  <si>
-    <t>-0.000**</t>
-  </si>
-  <si>
-    <t>3594144</t>
-  </si>
-  <si>
-    <t>0.721</t>
-  </si>
-  <si>
-    <t>4717</t>
+    <t>42.195***</t>
+  </si>
+  <si>
+    <t>(2.208)</t>
+  </si>
+  <si>
+    <t>0.142***</t>
+  </si>
+  <si>
+    <t>0.059***</t>
+  </si>
+  <si>
+    <t>0.060***</t>
+  </si>
+  <si>
+    <t>0.045***</t>
+  </si>
+  <si>
+    <t>0.029***</t>
+  </si>
+  <si>
+    <t>-0.023***</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>(0.016)</t>
+  </si>
+  <si>
+    <t>0.001***</t>
+  </si>
+  <si>
+    <t>-0.001***</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>(0.005)</t>
+  </si>
+  <si>
+    <t>-0.069*</t>
+  </si>
+  <si>
+    <t>(0.028)</t>
+  </si>
+  <si>
+    <t>R2 (full model)</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>Adj. R2 (full model)</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>Num. groups: fips</t>
+  </si>
+  <si>
+    <t>60.796***</t>
+  </si>
+  <si>
+    <t>(11.574)</t>
+  </si>
+  <si>
+    <t>0.106**</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.656*</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.033)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.323)</t>
+  </si>
+  <si>
+    <t>-0.673</t>
+  </si>
+  <si>
+    <t>(0.482)</t>
+  </si>
+  <si>
+    <t>41.606***</t>
+  </si>
+  <si>
+    <t>(2.179)</t>
+  </si>
+  <si>
+    <t>0.140***</t>
+  </si>
+  <si>
+    <t>0.043***</t>
+  </si>
+  <si>
+    <t>0.032**</t>
+  </si>
+  <si>
+    <t>0.030</t>
+  </si>
+  <si>
+    <t>(0.010)</t>
+  </si>
+  <si>
+    <t>(0.030)</t>
+  </si>
+  <si>
+    <t>-0.023**</t>
+  </si>
+  <si>
+    <t>(0.008)</t>
+  </si>
+  <si>
+    <t>-0.056</t>
+  </si>
+  <si>
+    <t>(0.050)</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.723</t>
   </si>
 </sst>
 </file>
@@ -739,10 +748,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF263F64-613E-4436-B9B1-F84A4BFCEE66}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A33397-649D-49F9-B366-14D09A9F4F06}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +1222,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -770,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -778,21 +1248,27 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -800,365 +1276,218 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1166,519 +1495,91 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A33397-649D-49F9-B366-14D09A9F4F06}">
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1689,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A13939-F957-46CE-ADB4-928E2E1F7DF1}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1702,7 +1603,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1720,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1728,12 +1629,12 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1741,45 +1642,45 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1787,21 +1688,21 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1809,15 +1710,15 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1825,15 +1726,15 @@
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1841,15 +1742,15 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1857,15 +1758,15 @@
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1873,86 +1774,86 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1960,88 +1861,68 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/COVIDPPP/simple_regression2.xlsx
+++ b/COVIDPPP/simple_regression2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB115BD7-A821-46AC-AA0F-8654ACF57937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA85949-AB69-4C87-974A-7C71D9917DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-1840" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5C0248D8-EA7F-4B58-AE6F-972E3FB6C12F}"/>
+    <workbookView xWindow="-19310" yWindow="-1840" windowWidth="19420" windowHeight="10420" xr2:uid="{5C0248D8-EA7F-4B58-AE6F-972E3FB6C12F}"/>
   </bookViews>
   <sheets>
     <sheet name="zip2" sheetId="1" r:id="rId1"/>
     <sheet name="zip" sheetId="3" r:id="rId2"/>
     <sheet name="county" sheetId="2" r:id="rId3"/>
+    <sheet name="countybiz" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="152">
   <si>
     <t>Model 1</t>
   </si>
@@ -396,6 +397,102 @@
   </si>
   <si>
     <t>0.723</t>
+  </si>
+  <si>
+    <t>Model7</t>
+  </si>
+  <si>
+    <t>69.068***</t>
+  </si>
+  <si>
+    <t>(14.271)</t>
+  </si>
+  <si>
+    <t>percent_minority_biz</t>
+  </si>
+  <si>
+    <t>0.232***</t>
+  </si>
+  <si>
+    <t>0.067***</t>
+  </si>
+  <si>
+    <t>0.217***</t>
+  </si>
+  <si>
+    <t>0.209***</t>
+  </si>
+  <si>
+    <t>0.403***</t>
+  </si>
+  <si>
+    <t>0.144***</t>
+  </si>
+  <si>
+    <t>0.446***</t>
+  </si>
+  <si>
+    <t>(0.039)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.113)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>percent_minority_biz^2</t>
+  </si>
+  <si>
+    <t>-0.003</t>
+  </si>
+  <si>
+    <t>-0.005***</t>
+  </si>
+  <si>
+    <t>Lender fixed effects</t>
+  </si>
+  <si>
+    <t>State fixed effects</t>
+  </si>
+  <si>
+    <t>3842949</t>
+  </si>
+  <si>
+    <t>3830289</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.750</t>
+  </si>
+  <si>
+    <t>0.670</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>4651</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Num groups: state</t>
+  </si>
+  <si>
+    <t>County fixed effects</t>
   </si>
 </sst>
 </file>
@@ -748,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF263F64-613E-4436-B9B1-F84A4BFCEE66}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,122 +1179,159 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1211,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A33397-649D-49F9-B366-14D09A9F4F06}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -1592,9 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A13939-F957-46CE-ADB4-928E2E1F7DF1}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1928,4 +2060,403 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78DAD04-12E1-407A-A12F-130EE69E0BA5}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>